--- a/EnglishGrammarLearningSystem/Content/DB.xlsx
+++ b/EnglishGrammarLearningSystem/Content/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="22056" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <r>
       <rPr>
@@ -465,18 +465,6 @@
         <rFont val="新細明體"/>
         <family val="2"/>
       </rPr>
-      <t>ABC</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
       <t>什麼是ABC</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -501,18 +489,6 @@
         <rFont val="新細明體"/>
         <family val="2"/>
       </rPr>
-      <t>V</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
       <t>/Content/Video/123.wmv</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -526,30 +502,6 @@
         <family val="2"/>
       </rPr>
       <t>初級</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>ABC</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -586,18 +538,6 @@
         <family val="2"/>
       </rPr>
       <t>blablablablabla</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-      </rPr>
-      <t>G</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -925,6 +865,14 @@
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>影片</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -975,11 +923,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,7 +1787,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2065,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2116,20 +2067,17 @@
       <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2137,25 +2085,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
+      <c r="H3" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2824,7 +2766,7 @@
   <dimension ref="A1:E285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C281" sqref="C281"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2836,19 +2778,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2859,13 +2801,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4293,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4308,16 +4250,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5694,7 +5636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
@@ -5707,19 +5649,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -6863,16 +6805,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8929,19 +8871,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -8955,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>44506.993055555598</v>
